--- a/Data/Transitions/19321933Translation.xlsx
+++ b/Data/Transitions/19321933Translation.xlsx
@@ -226,7 +226,7 @@
     <t>{97.0: 1.0}</t>
   </si>
   <si>
-    <t>{98.0: 0.44695487535500156}</t>
+    <t>{98.0: 0.4517299630857786}</t>
   </si>
   <si>
     <t>{99.0: 1.0}</t>
@@ -328,7 +328,7 @@
     <t>{170.0: 1.0}</t>
   </si>
   <si>
-    <t>{171.0: 0.9967470057666716}</t>
+    <t>{171.0: 0.9967962720256298}</t>
   </si>
   <si>
     <t>{172.0: 1.0}</t>
@@ -367,7 +367,7 @@
     <t>{183.0: 1.0}</t>
   </si>
   <si>
-    <t>{184.0: 1.0, 171.0: 0.0032529942333284047, 593.0: 0.0009536524890329964}</t>
+    <t>{184.0: 1.0, 171.0: 0.003203727974370176, 593.0: 0.0009533797311469158}</t>
   </si>
   <si>
     <t>{185.0: 1.0}</t>
@@ -475,10 +475,13 @@
     <t>{239.0: 1.0}</t>
   </si>
   <si>
-    <t>{240.0: 1.0, 241.0: 0.0005244755244755245}</t>
-  </si>
-  <si>
-    <t>{241.0: 0.9994755244755245}</t>
+    <t>{240.0: 1.0, 241.0: 0.0005183137525915688}</t>
+  </si>
+  <si>
+    <t>{241.0: 0.9994816862474084}</t>
+  </si>
+  <si>
+    <t>{242.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 1.0}</t>
@@ -487,7 +490,7 @@
     <t>{244.0: 1.0}</t>
   </si>
   <si>
-    <t>{246.0: 0.9990600241708071}</t>
+    <t>{246.0: 0.9990544373902472}</t>
   </si>
   <si>
     <t>{247.0: 1.0}</t>
@@ -700,13 +703,10 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
-  </si>
-  <si>
     <t>{321.0: 1.0}</t>
   </si>
   <si>
-    <t>{398.0: 1.0, 98.0: 0.5530451246449984}</t>
+    <t>{398.0: 1.0, 98.0: 0.5482700369142214}</t>
   </si>
   <si>
     <t>{399.0: 1.0}</t>
@@ -886,7 +886,7 @@
     <t>{491.0: 1.0}</t>
   </si>
   <si>
-    <t>{492.0: 0.9919282511210762}</t>
+    <t>{492.0: 0.9919747081712063}</t>
   </si>
   <si>
     <t>{493.0: 1.0}</t>
@@ -1066,7 +1066,7 @@
     <t>{592.0: 1.0}</t>
   </si>
   <si>
-    <t>{593.0: 0.999046347510967}</t>
+    <t>{593.0: 0.999046620268853}</t>
   </si>
   <si>
     <t>{595.0: 1.0}</t>
@@ -1102,7 +1102,7 @@
     <t>{605.0: 1.0}</t>
   </si>
   <si>
-    <t>{606.0: 0.9985494106980961}</t>
+    <t>{606.0: 0.9985660512636674}</t>
   </si>
   <si>
     <t>{607.0: 1.0}</t>
@@ -1138,7 +1138,7 @@
     <t>{617.0: 1.0}</t>
   </si>
   <si>
-    <t>{618.0: 1.0, 246.0: 0.0009399758291929637, 789.0: 0.0048678056695618975}</t>
+    <t>{618.0: 1.0, 246.0: 0.0009455626097528029, 789.0: 0.004867341095628937}</t>
   </si>
   <si>
     <t>{619.0: 1.0}</t>
@@ -1249,7 +1249,7 @@
     <t>{695.0: 1.0}</t>
   </si>
   <si>
-    <t>{696.0: 1.0, 492.0: 0.008071748878923767}</t>
+    <t>{696.0: 1.0, 492.0: 0.008025291828793774}</t>
   </si>
   <si>
     <t>{697.0: 1.0}</t>
@@ -1456,7 +1456,7 @@
     <t>{788.0: 1.0}</t>
   </si>
   <si>
-    <t>{789.0: 0.9951321943304381}</t>
+    <t>{789.0: 0.9951326589043711}</t>
   </si>
   <si>
     <t>{831.0: 1.0}</t>
@@ -1663,10 +1663,10 @@
     <t>{928.0: 1.0}</t>
   </si>
   <si>
-    <t>{929.0: 1.0, 930.0: 0.35772747618134154}</t>
-  </si>
-  <si>
-    <t>{930.0: 0.6422725238186585}</t>
+    <t>{929.0: 1.0, 930.0: 0.364474412847324}</t>
+  </si>
+  <si>
+    <t>{930.0: 0.6355255871526759}</t>
   </si>
   <si>
     <t>{931.0: 1.0}</t>
@@ -1762,7 +1762,7 @@
     <t>{171.0: 1.0}</t>
   </si>
   <si>
-    <t>{184.0: 0.9891119428376999, 171.0: 0.00748553929908132, 593.0: 0.003402517863218782}</t>
+    <t>{184.0: 0.9890822244967588, 171.0: 0.007505970658478335, 593.0: 0.0034118048447628795}</t>
   </si>
   <si>
     <t>{240.0: 0.9978021978021978, 241.0: 0.002197802197802198}</t>
@@ -1789,13 +1789,13 @@
     <t>{618.0: 0.9843454790823212, 246.0: 0.0018893387314439945, 789.0: 0.013765182186234818}</t>
   </si>
   <si>
-    <t>{696.0: 0.9840861597813856, 492.0: 0.01591384021861437}</t>
+    <t>{696.0: 0.9841142490372272, 492.0: 0.015885750962772786}</t>
   </si>
   <si>
     <t>{789.0: 1.0}</t>
   </si>
   <si>
-    <t>{929.0: 0.8347584658780441, 930.0: 0.1652415341219559}</t>
+    <t>{929.0: 0.8356613057207902, 930.0: 0.1643386942792098}</t>
   </si>
   <si>
     <t>{930.0: 1.0}</t>
@@ -3847,7 +3847,7 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B154" t="s">
         <v>155</v>
@@ -3858,7 +3858,7 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B155" t="s">
         <v>156</v>
@@ -3869,29 +3869,29 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
       </c>
       <c r="C156" t="s">
-        <v>585</v>
+        <v>157</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B157" t="s">
         <v>158</v>
       </c>
       <c r="C157" t="s">
-        <v>158</v>
+        <v>585</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
@@ -3902,7 +3902,7 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
@@ -3913,7 +3913,7 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B160" t="s">
         <v>161</v>
@@ -3924,7 +3924,7 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
@@ -3935,7 +3935,7 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B162" t="s">
         <v>163</v>
@@ -3946,7 +3946,7 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
@@ -3957,7 +3957,7 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
@@ -3968,7 +3968,7 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
@@ -3979,7 +3979,7 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B166" t="s">
         <v>167</v>
@@ -3990,7 +3990,7 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B167" t="s">
         <v>168</v>
@@ -4001,7 +4001,7 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B168" t="s">
         <v>169</v>
@@ -4012,7 +4012,7 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B169" t="s">
         <v>170</v>
@@ -4023,7 +4023,7 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
@@ -4034,7 +4034,7 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B171" t="s">
         <v>172</v>
@@ -4045,7 +4045,7 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B172" t="s">
         <v>173</v>
@@ -4056,7 +4056,7 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B173" t="s">
         <v>174</v>
@@ -4067,7 +4067,7 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B174" t="s">
         <v>175</v>
@@ -4078,7 +4078,7 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B175" t="s">
         <v>176</v>
@@ -4089,7 +4089,7 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B176" t="s">
         <v>177</v>
@@ -4100,7 +4100,7 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B177" t="s">
         <v>178</v>
@@ -4111,7 +4111,7 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B178" t="s">
         <v>179</v>
@@ -4122,7 +4122,7 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B179" t="s">
         <v>180</v>
@@ -4133,7 +4133,7 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B180" t="s">
         <v>181</v>
@@ -4144,7 +4144,7 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B181" t="s">
         <v>182</v>
@@ -4155,7 +4155,7 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B182" t="s">
         <v>183</v>
@@ -4166,7 +4166,7 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B183" t="s">
         <v>184</v>
@@ -4177,7 +4177,7 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B184" t="s">
         <v>185</v>
@@ -4188,7 +4188,7 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B185" t="s">
         <v>186</v>
@@ -4199,7 +4199,7 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B186" t="s">
         <v>187</v>
@@ -4210,7 +4210,7 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B187" t="s">
         <v>188</v>
@@ -4221,7 +4221,7 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B188" t="s">
         <v>189</v>
@@ -4232,7 +4232,7 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B189" t="s">
         <v>190</v>
@@ -4243,7 +4243,7 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B190" t="s">
         <v>191</v>
@@ -4254,7 +4254,7 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B191" t="s">
         <v>192</v>
@@ -4265,7 +4265,7 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B192" t="s">
         <v>193</v>
@@ -4276,7 +4276,7 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B193" t="s">
         <v>194</v>
@@ -4287,7 +4287,7 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B194" t="s">
         <v>195</v>
@@ -4298,7 +4298,7 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B195" t="s">
         <v>196</v>
@@ -4309,7 +4309,7 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B196" t="s">
         <v>197</v>
@@ -4320,7 +4320,7 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B197" t="s">
         <v>198</v>
@@ -4331,7 +4331,7 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B198" t="s">
         <v>199</v>
@@ -4342,7 +4342,7 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B199" t="s">
         <v>200</v>
@@ -4353,7 +4353,7 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B200" t="s">
         <v>201</v>
@@ -4364,7 +4364,7 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B201" t="s">
         <v>202</v>
@@ -4375,7 +4375,7 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B202" t="s">
         <v>203</v>
@@ -4386,7 +4386,7 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B203" t="s">
         <v>204</v>
@@ -4397,7 +4397,7 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B204" t="s">
         <v>205</v>
@@ -4408,7 +4408,7 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B205" t="s">
         <v>206</v>
@@ -4419,7 +4419,7 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B206" t="s">
         <v>207</v>
@@ -4430,7 +4430,7 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B207" t="s">
         <v>208</v>
@@ -4441,7 +4441,7 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B208" t="s">
         <v>209</v>
@@ -4452,7 +4452,7 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B209" t="s">
         <v>210</v>
@@ -4463,7 +4463,7 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B210" t="s">
         <v>211</v>
@@ -4474,7 +4474,7 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B211" t="s">
         <v>212</v>
@@ -4485,7 +4485,7 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B212" t="s">
         <v>213</v>
@@ -4496,7 +4496,7 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B213" t="s">
         <v>214</v>
@@ -4507,7 +4507,7 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B214" t="s">
         <v>215</v>
@@ -4518,7 +4518,7 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B215" t="s">
         <v>216</v>
@@ -4529,7 +4529,7 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B216" t="s">
         <v>217</v>
@@ -4540,7 +4540,7 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B217" t="s">
         <v>218</v>
@@ -4551,7 +4551,7 @@
     </row>
     <row r="218" spans="1:3">
       <c r="A218">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B218" t="s">
         <v>219</v>
@@ -4562,7 +4562,7 @@
     </row>
     <row r="219" spans="1:3">
       <c r="A219">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B219" t="s">
         <v>220</v>
@@ -4573,7 +4573,7 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B220" t="s">
         <v>221</v>
@@ -4584,7 +4584,7 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B221" t="s">
         <v>222</v>
@@ -4595,7 +4595,7 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B222" t="s">
         <v>223</v>
@@ -4606,7 +4606,7 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B223" t="s">
         <v>224</v>
@@ -4617,7 +4617,7 @@
     </row>
     <row r="224" spans="1:3">
       <c r="A224">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B224" t="s">
         <v>225</v>
@@ -4628,7 +4628,7 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B225" t="s">
         <v>226</v>
@@ -4639,7 +4639,7 @@
     </row>
     <row r="226" spans="1:3">
       <c r="A226">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B226" t="s">
         <v>227</v>
@@ -4650,7 +4650,7 @@
     </row>
     <row r="227" spans="1:3">
       <c r="A227">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B227" t="s">
         <v>228</v>
